--- a/output/Simple Invoice.pdf.Results.xlsx
+++ b/output/Simple Invoice.pdf.Results.xlsx
@@ -37,7 +37,7 @@
     <x:t>Items</x:t>
   </x:si>
   <x:si>
-    <x:t>UiPath INC</x:t>
+    <x:t>UiPath INC Ui Path</x:t>
   </x:si>
   <x:si>
     <x:t>55512</x:t>

--- a/output/Simple Invoice.pdf.Results.xlsx
+++ b/output/Simple Invoice.pdf.Results.xlsx
@@ -46,7 +46,7 @@
     <x:t>2019-05-01</x:t>
   </x:si>
   <x:si>
-    <x:t>90 Park Ave 20th floor, New York, NY 10016, United States</x:t>
+    <x:t>90 10016, United States</x:t>
   </x:si>
   <x:si>
     <x:t>1696000</x:t>
